--- a/legendre_out/DATA/a1/a1IntegrandSplinePoints0.300000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandSplinePoints0.300000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>2.629575021186021e-61</v>
+        <v>2.640878201094737e-61</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>2.589096542215231e-61</v>
+        <v>2.602354125978913e-61</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>2.54686345373573e-61</v>
+        <v>2.561200119727249e-61</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>2.503080717719252e-61</v>
+        <v>2.517710824381087e-61</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>2.457953296137364e-61</v>
+        <v>2.472180881981606e-61</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>2.41168615096169e-61</v>
+        <v>2.424904934570038e-61</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>2.36448424416379e-61</v>
+        <v>2.376177624187551e-61</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>2.316552537715411e-61</v>
+        <v>2.326293592875506e-61</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>2.268095993588112e-61</v>
+        <v>2.275547482675071e-61</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>2.219319573753455e-61</v>
+        <v>2.224233935627411e-61</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>2.170428240183189e-61</v>
+        <v>2.172647593773895e-61</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>2.121626954848873e-61</v>
+        <v>2.121083099155685e-61</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>2.073120679722065e-61</v>
+        <v>2.069835093813949e-61</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>2.025114376774518e-61</v>
+        <v>2.019198219790054e-61</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>1.977813007977789e-61</v>
+        <v>1.969467119125162e-61</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>1.9314215353035e-61</v>
+        <v>1.920936433860509e-61</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>1.886144920723217e-61</v>
+        <v>1.873900806037264e-61</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>1.84218812620868e-61</v>
+        <v>1.828654877696783e-61</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>1.799750489970171e-61</v>
+        <v>1.785483661306524e-61</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>1.75891825784434e-61</v>
+        <v>1.744478521116329e-61</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>1.719672937935598e-61</v>
+        <v>1.705551478821586e-61</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>1.681992088600908e-61</v>
+        <v>1.668607792960128e-61</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>1.645853268197282e-61</v>
+        <v>1.633552722069838e-61</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>1.611234035081693e-61</v>
+        <v>1.600291524688561e-61</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>1.578111947611244e-61</v>
+        <v>1.568729459354269e-61</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>1.546464564142905e-61</v>
+        <v>1.538771784604803e-61</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>1.51626944303365e-61</v>
+        <v>1.510323758978012e-61</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>1.487504142640574e-61</v>
+        <v>1.483290641011857e-61</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>1.460146221320652e-61</v>
+        <v>1.457577689244184e-61</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>1.434173237430896e-61</v>
+        <v>1.433090162212881e-61</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>1.409562749328292e-61</v>
+        <v>1.409733318455801e-61</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>1.386292315369917e-61</v>
+        <v>1.387412416510892e-61</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>1.364339493912753e-61</v>
+        <v>1.366032714916008e-61</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>1.343681843313789e-61</v>
+        <v>1.345499472209009e-61</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>1.324278988224941e-61</v>
+        <v>1.325714518911516e-61</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>1.305970527682316e-61</v>
+        <v>1.306556742725074e-61</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>1.288546799629117e-61</v>
+        <v>1.2878956151247e-61</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>1.271797991814905e-61</v>
+        <v>1.269600578876047e-61</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>1.25551429198917e-61</v>
+        <v>1.2515410767447e-61</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>1.239485887901428e-61</v>
+        <v>1.233586551496264e-61</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.223502967301173e-61</v>
+        <v>1.215606445896324e-61</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>1.207355717937961e-61</v>
+        <v>1.197470202710533e-61</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>1.190834327561285e-61</v>
+        <v>1.179047264704475e-61</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>1.173728983920639e-61</v>
+        <v>1.160207074643733e-61</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>1.15582987476558e-61</v>
+        <v>1.140819075293962e-61</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>1.136927187845602e-61</v>
+        <v>1.120752709420745e-61</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>1.116811110910219e-61</v>
+        <v>1.09987741978969e-61</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>1.095271831708918e-61</v>
+        <v>1.078062649166374e-61</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.072099537991269e-61</v>
+        <v>1.055177840316461e-61</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>1.047104228555761e-61</v>
+        <v>1.031104346215885e-61</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>1.020350592693098e-61</v>
+        <v>1.005876637292224e-61</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>9.920800100138738e-62</v>
+        <v>9.796354084782809e-62</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>9.625374143524886e-62</v>
+        <v>9.525234914716739e-62</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>9.31967739543336e-62</v>
+        <v>9.246837179700178e-62</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>9.006159194209298e-62</v>
+        <v>8.962589196710363e-62</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>8.687268878196655e-62</v>
+        <v>8.673919282723448e-62</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>8.365455785739762e-62</v>
+        <v>8.382255754715937e-62</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>8.043169255182544e-62</v>
+        <v>8.089026929663961e-62</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>7.722858624870188e-62</v>
+        <v>7.795661124544798e-62</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>7.406973233146611e-62</v>
+        <v>7.503586656334575e-62</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>7.097962418355751e-62</v>
+        <v>7.214231842009424e-62</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>6.79822358761547e-62</v>
+        <v>6.929001220866781e-62</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>6.508876976461235e-62</v>
+        <v>6.648714555402234e-62</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>6.22971790949794e-62</v>
+        <v>6.373584972960416e-62</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>5.960480228201932e-62</v>
+        <v>6.103797449689999e-62</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>5.700897774050606e-62</v>
+        <v>5.839536961740708e-62</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>5.450704388520297e-62</v>
+        <v>5.580988485261213e-62</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>5.209633913087388e-62</v>
+        <v>5.328336996400206e-62</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>4.977420189229203e-62</v>
+        <v>5.08176747130737e-62</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>4.753797058422113e-62</v>
+        <v>4.841464886131396e-62</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>4.538498362142535e-62</v>
+        <v>4.607614217021e-62</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>4.331257941867723e-62</v>
+        <v>4.380400440125818e-62</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>4.131809639074086e-62</v>
+        <v>4.160008531594563e-62</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>3.939887295238314e-62</v>
+        <v>3.946623467576253e-62</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>3.755224751836861e-62</v>
+        <v>3.740430224219646e-62</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>3.577555850346907e-62</v>
+        <v>3.541613777674306e-62</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>3.406614432244895e-62</v>
+        <v>3.350359104088979e-62</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>3.242134339007309e-62</v>
+        <v>3.166851179612451e-62</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>3.08384941211127e-62</v>
+        <v>2.991274980394226e-62</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>2.931493493033253e-62</v>
+        <v>2.823815482583079e-62</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>2.78480042324995e-62</v>
+        <v>2.664657662328033e-62</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>2.643504044237871e-62</v>
+        <v>2.513986495777917e-62</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>2.50733819747408e-62</v>
+        <v>2.371986959082148e-62</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>2.37603672443508e-62</v>
+        <v>2.238844028389546e-62</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>2.249333466597402e-62</v>
+        <v>2.114742679848975e-62</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>2.12696226543807e-62</v>
+        <v>1.999867889609784e-62</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>2.008656962433607e-62</v>
+        <v>1.894404633820823e-62</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>1.894351303523713e-62</v>
+        <v>1.798467700981923e-62</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>1.785018166582856e-62</v>
+        <v>1.711807034173058e-62</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>1.681967014119521e-62</v>
+        <v>1.634054399602293e-62</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>1.58650748132675e-62</v>
+        <v>1.564841502846614e-62</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>1.499949203397626e-62</v>
+        <v>1.503800049483051e-62</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>1.423601815525565e-62</v>
+        <v>1.450561745088869e-62</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>1.358774952903636e-62</v>
+        <v>1.40475829524109e-62</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>1.30677825072497e-62</v>
+        <v>1.366021405516773e-62</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>1.268921344182893e-62</v>
+        <v>1.333982781493125e-62</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>1.246513868470517e-62</v>
+        <v>1.308274128747195e-62</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>1.24086545878103e-62</v>
+        <v>1.288527152856091e-62</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>1.25328575030765e-62</v>
+        <v>1.274373559396902e-62</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>1.285084378243535e-62</v>
+        <v>1.265445053946771e-62</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>2.126816003888803e-65</v>
+        <v>2.106488880758913e-65</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>2.7557534505878e-65</v>
+        <v>2.751026659416686e-65</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>2.562547566886053e-65</v>
+        <v>2.535520318728025e-65</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>2.441370743326577e-65</v>
+        <v>2.430542760720421e-65</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>2.349788419616353e-65</v>
+        <v>2.362553599041381e-65</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>2.262556996870726e-65</v>
+        <v>2.277632498103857e-65</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>2.364138954150752e-65</v>
+        <v>2.361196748494127e-65</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>2.979085670468002e-65</v>
+        <v>2.958552854805762e-65</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>3.955634359066983e-65</v>
+        <v>3.939649567676197e-65</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>4.24158831354286e-65</v>
+        <v>4.256707086839961e-65</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>4.264740403949807e-65</v>
+        <v>4.296496571338842e-65</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>4.280601317000724e-65</v>
+        <v>4.292269554999065e-65</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>4.055380463437462e-65</v>
+        <v>4.02283682453442e-65</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>3.665789687151292e-65</v>
+        <v>3.628475627193764e-65</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>3.354856402950146e-65</v>
+        <v>3.412452085532054e-65</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>3.162876779862795e-65</v>
+        <v>3.285536681989618e-65</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>3.058618570169562e-65</v>
+        <v>3.117521599739026e-65</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>3.016067410631637e-65</v>
+        <v>3.046997174750388e-65</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>2.854078812801821e-65</v>
+        <v>2.86335213844193e-65</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>2.635005837109341e-65</v>
+        <v>2.614810600870773e-65</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>2.466268609100695e-65</v>
+        <v>2.461706054722205e-65</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>2.288506580384401e-65</v>
+        <v>2.292473245852172e-65</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>2.118301733318593e-65</v>
+        <v>2.124974275618402e-65</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>1.97635854999233e-65</v>
+        <v>1.988576772828088e-65</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>1.854885611869976e-65</v>
+        <v>1.87249307551087e-65</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>1.743004464089069e-65</v>
+        <v>1.761585392778741e-65</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>1.630370609764609e-65</v>
+        <v>1.641910925949653e-65</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>1.512087656027178e-65</v>
+        <v>1.51171967448522e-65</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>1.386444288964915e-65</v>
+        <v>1.376389810269766e-65</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>1.251886861900345e-65</v>
+        <v>1.241347556984529e-65</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>1.111433384876715e-65</v>
+        <v>1.110402350596735e-65</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>9.7404033977185e-66</v>
+        <v>9.852634588218195e-66</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>8.490610591779287e-66</v>
+        <v>8.674998012700523e-66</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>7.446777996026055e-66</v>
+        <v>7.591481580197996e-66</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>6.613497091663138e-66</v>
+        <v>6.653307936494512e-66</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>5.96404112073088e-66</v>
+        <v>5.923890528142139e-66</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>5.465435844276846e-66</v>
+        <v>5.420223268187663e-66</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>5.071996726060942e-66</v>
+        <v>5.063428913934465e-66</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>4.737568699721782e-66</v>
+        <v>4.76509487598382e-66</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>4.437754988765382e-66</v>
+        <v>4.482522983319079e-66</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>4.16811382166502e-66</v>
+        <v>4.214940760898443e-66</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>3.924941973836394e-66</v>
+        <v>3.963127429338392e-66</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>3.704536220695516e-66</v>
+        <v>3.727862209255737e-66</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>3.503193337658073e-66</v>
+        <v>3.50992432126695e-66</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>3.317316025398176e-66</v>
+        <v>3.309997400605827e-66</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>3.144762150434753e-66</v>
+        <v>3.127451962420122e-66</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>2.984446890704279e-66</v>
+        <v>2.960704419709215e-66</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>2.835309225270329e-66</v>
+        <v>2.808149707687772e-66</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>2.696288133196495e-66</v>
+        <v>2.668182761570486e-66</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>2.566322593546561e-66</v>
+        <v>2.539198516572236e-66</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>2.444351585384116e-66</v>
+        <v>2.419591907907708e-66</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>2.329314087772816e-66</v>
+        <v>2.307757870791654e-66</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>2.220149079776267e-66</v>
+        <v>2.202091340438781e-66</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>2.115920778679883e-66</v>
+        <v>2.10118651365379e-66</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>2.016313831977619e-66</v>
+        <v>2.004624729250615e-66</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>1.921204662734226e-66</v>
+        <v>1.912292452582238e-66</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>1.830469750158073e-66</v>
+        <v>1.824076238329454e-66</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>1.743985573457398e-66</v>
+        <v>1.739862641172934e-66</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>1.661628611840484e-66</v>
+        <v>1.659538215793392e-66</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>1.583275344515582e-66</v>
+        <v>1.582989516871506e-66</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>1.508802250691043e-66</v>
+        <v>1.51010309908806e-66</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>1.438085809575115e-66</v>
+        <v>1.44076551712373e-66</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>1.371002500376051e-66</v>
+        <v>1.374863325659202e-66</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>1.307428802302195e-66</v>
+        <v>1.312283079375247e-66</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>1.247241194561799e-66</v>
+        <v>1.252911332952549e-66</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>1.190316156363146e-66</v>
+        <v>1.196634641071821e-66</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>1.136530166914495e-66</v>
+        <v>1.143339558413751e-66</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>1.085759705424177e-66</v>
+        <v>1.092912639659103e-66</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>1.037881251100452e-66</v>
+        <v>1.045240439488563e-66</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>9.927712831515814e-67</v>
+        <v>1.000209512582827e-66</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>9.5030628078589e-67</v>
+        <v>9.577064136226467e-67</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>9.103627232116393e-67</v>
+        <v>9.176176972887149e-67</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>8.728170896371127e-67</v>
+        <v>8.798299182617454e-67</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>8.375458592705772e-67</v>
+        <v>8.442296312224352e-67</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>8.044255113203482e-67</v>
+        <v>8.107033908515296e-67</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>7.733325249946924e-67</v>
+        <v>7.791377518297258e-67</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>7.441433795018796e-67</v>
+        <v>7.494192688377235e-67</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>7.167345540502191e-67</v>
+        <v>7.214344965562626e-67</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>6.909825278479807e-67</v>
+        <v>6.950699896660427e-67</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>6.667637801034471e-67</v>
+        <v>6.702123028477769e-67</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>6.439547900248918e-67</v>
+        <v>6.467479907821683e-67</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>6.224320368206177e-67</v>
+        <v>6.245636081499507e-67</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>6.020719996988979e-67</v>
+        <v>6.035457096318271e-67</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>5.82751157868015e-67</v>
+        <v>5.835808499085102e-67</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>5.64345990536244e-67</v>
+        <v>5.64555583660705e-67</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>5.467329769118845e-67</v>
+        <v>5.463564655691417e-67</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>5.297885962032111e-67</v>
+        <v>5.288700503145249e-67</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>5.133893341632291e-67</v>
+        <v>5.119828983867936e-67</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>4.974350611051391e-67</v>
+        <v>4.956023268809307e-67</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>4.819015544452905e-67</v>
+        <v>4.79703029560398e-67</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>4.667799665211686e-67</v>
+        <v>4.642733472772866e-67</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>4.520614496702798e-67</v>
+        <v>4.493016208837092e-67</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>4.377371562301093e-67</v>
+        <v>4.347761912317575e-67</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>4.237982385381497e-67</v>
+        <v>4.206853991735297e-67</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>4.102358489318875e-67</v>
+        <v>4.070175855611189e-67</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>3.970411397488271e-67</v>
+        <v>3.937610912466354e-67</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>3.84205263326455e-67</v>
+        <v>3.809042570821722e-67</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>3.717193720022635e-67</v>
+        <v>3.684354239198272e-67</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>3.595746181137396e-67</v>
+        <v>3.563429326116942e-67</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>3.477621539983867e-67</v>
+        <v>3.446151240098823e-67</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>3.362731319936917e-67</v>
+        <v>3.332403389664847e-67</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>3.250987044371421e-67</v>
+        <v>3.222069183335951e-67</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>3.142300236662403e-67</v>
+        <v>3.11503202963322e-67</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>3.036582420184736e-67</v>
+        <v>3.011175337077591e-67</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>2.933745118313345e-67</v>
+        <v>2.910382514190047e-67</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>2.833699854423111e-67</v>
+        <v>2.812536969491533e-67</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>2.736358151889046e-67</v>
+        <v>2.717522111503122e-67</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>2.641631534086031e-67</v>
+        <v>2.625221348745756e-67</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>2.549431524388947e-67</v>
+        <v>2.535518089740381e-67</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>2.459669646172803e-67</v>
+        <v>2.448295743008062e-67</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>2.372257422812481e-67</v>
+        <v>2.363437717069746e-67</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>2.287106377682904e-67</v>
+        <v>2.280827420446417e-67</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>2.204128034158961e-67</v>
+        <v>2.200348261659027e-67</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>2.12323391561565e-67</v>
+        <v>2.121883649228632e-67</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>2.044341271037268e-67</v>
+        <v>2.045324953966888e-67</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>1.96739794058915e-67</v>
+        <v>1.970606088161634e-67</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>1.892361939255413e-67</v>
+        <v>1.897675113662609e-67</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>1.819191288872224e-67</v>
+        <v>1.826480101848364e-67</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>1.747844011275784e-67</v>
+        <v>1.756969124097482e-67</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>1.67827812830226e-67</v>
+        <v>1.689090251788517e-67</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>1.610451661787919e-67</v>
+        <v>1.622791556300115e-67</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>1.544322633568928e-67</v>
+        <v>1.558021109010828e-67</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>1.47984906548146e-67</v>
+        <v>1.494726981299213e-67</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>1.416988979361772e-67</v>
+        <v>1.43285724454391e-67</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>1.355700397046038e-67</v>
+        <v>1.372359970123475e-67</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>1.295941340370457e-67</v>
+        <v>1.313183229416492e-67</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>1.237669831171204e-67</v>
+        <v>1.255275093801518e-67</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>1.180843891284532e-67</v>
+        <v>1.198583634657191e-67</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>1.125421542546617e-67</v>
+        <v>1.143056923362068e-67</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>1.071360806793634e-67</v>
+        <v>1.088643031294708e-67</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>1.018619705861833e-67</v>
+        <v>1.035290029833745e-67</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>9.671609522408103e-68</v>
+        <v>9.829542384143811e-68</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>9.169970853501659e-68</v>
+        <v>9.316795922694751e-68</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>8.68170690634291e-68</v>
+        <v>8.815628596366413e-68</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>8.207247678671515e-68</v>
+        <v>8.327015373115998e-68</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>7.747023168226465e-68</v>
+        <v>7.851931220900021e-68</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>7.301463372746977e-68</v>
+        <v>7.391351107675235e-68</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>6.870998289972073e-68</v>
+        <v>6.946250001398191e-68</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>6.45605791764136e-68</v>
+        <v>6.517602870026042e-68</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>6.057072253493854e-68</v>
+        <v>6.10638468151533e-68</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>5.674471295268603e-68</v>
+        <v>5.713570403822634e-68</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>5.30868504070517e-68</v>
+        <v>5.340135004905055e-68</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>4.960143487542591e-68</v>
+        <v>4.987053452719166e-68</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>4.62927663351994e-68</v>
+        <v>4.655300715221566e-68</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>4.316516951985463e-68</v>
+        <v>4.345796248074639e-68</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>4.022327241603393e-68</v>
+        <v>4.058779501300455e-68</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>3.747190625978576e-68</v>
+        <v>3.794034164659931e-68</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>3.491590603317515e-68</v>
+        <v>3.551335527958132e-68</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>3.256010671827055e-68</v>
+        <v>3.330458881000442e-68</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>3.040934329713692e-68</v>
+        <v>3.131179513591916e-68</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>2.84684507518404e-68</v>
+        <v>2.953272715537721e-68</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>2.674226406444641e-68</v>
+        <v>2.796513776642959e-68</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>2.523561821702265e-68</v>
+        <v>2.660677986712941e-68</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>2.395334819163445e-68</v>
+        <v>2.545540635552757e-68</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>2.290028897034752e-68</v>
+        <v>2.450877012967537e-68</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>2.208127553522896e-68</v>
+        <v>2.376462408762536e-68</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>2.15011428683444e-68</v>
+        <v>2.322072112742873e-68</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>2.116332176358456e-68</v>
+        <v>2.28739189476427e-68</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>2.105126624772677e-68</v>
+        <v>2.270833963764219e-68</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>2.1133564470167e-68</v>
+        <v>2.269862797731531e-68</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>2.137845063230022e-68</v>
+        <v>2.281920309725526e-68</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>2.175415893552175e-68</v>
+        <v>2.304448412805547e-68</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>2.222892358122633e-68</v>
+        <v>2.334889020030906e-68</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>2.27709787708092e-68</v>
+        <v>2.370684044460943e-68</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>2.334855870566547e-68</v>
+        <v>2.409275399154988e-68</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>2.392989758719049e-68</v>
+        <v>2.448104997172393e-68</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>2.448322961677882e-68</v>
+        <v>2.484614751572452e-68</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>2.497678899582582e-68</v>
+        <v>2.516246575414515e-68</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>2.537880992572675e-68</v>
+        <v>2.540442381757922e-68</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>2.565752660787633e-68</v>
+        <v>2.554644083661983e-68</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>2.578117324366987e-68</v>
+        <v>2.556293594186043e-68</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>2.572141358747878e-68</v>
+        <v>2.543232574700322e-68</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>2.549790224097734e-68</v>
+        <v>2.518896494362804e-68</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>2.516560707383033e-68</v>
+        <v>2.490836932894178e-68</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>2.478041932496157e-68</v>
+        <v>2.466702202869718e-68</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>2.445423960581293e-68</v>
+        <v>2.454821744845345e-68</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>2.444375491684317e-68</v>
+        <v>2.465139910273701e-68</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>2.479308010626515e-68</v>
+        <v>2.494942935288377e-68</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>2.516017659786565e-68</v>
+        <v>2.520395407079974e-68</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>2.521669392513767e-68</v>
+        <v>2.519043421281512e-68</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>2.491714509714081e-68</v>
+        <v>2.487539993947618e-68</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>2.431685100705755e-68</v>
+        <v>2.429347532893192e-68</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>2.347125617008162e-68</v>
+        <v>2.347936796378248e-68</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>2.243667352694648e-68</v>
+        <v>2.246928539620321e-68</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>2.128654027094383e-68</v>
+        <v>2.132901268004014e-68</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>2.010997010079961e-68</v>
+        <v>2.015141178032563e-68</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>1.899665488293783e-68</v>
+        <v>1.903034328997392e-68</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>1.803628648378398e-68</v>
+        <v>1.805966780190076e-68</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>1.731855676976202e-68</v>
+        <v>1.733324590902036e-68</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>1.693315760729644e-68</v>
+        <v>1.694493820424742e-68</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>1.696978086281181e-68</v>
+        <v>1.698860528049679e-68</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>1.751811840273262e-68</v>
+        <v>1.755810773068319e-68</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>1.860726015092908e-68</v>
+        <v>1.86833393630105e-68</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>1.956261355432981e-68</v>
+        <v>1.965144047630447e-68</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>1.948614444670541e-68</v>
+        <v>1.951370298227518e-68</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>1.861429347226499e-68</v>
+        <v>1.851888144457841e-68</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>1.752983658900964e-68</v>
+        <v>1.728176108265449e-68</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>1.654730418891524e-68</v>
+        <v>1.61513442096425e-68</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>1.56393592483784e-68</v>
+        <v>1.513789556853198e-68</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>1.475648181845497e-68</v>
+        <v>1.422970006484837e-68</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>1.384915740980167e-68</v>
+        <v>1.341504365628064e-68</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>1.289669609771333e-68</v>
+        <v>1.268776731524646e-68</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>1.197451692130318e-68</v>
+        <v>1.206023394905355e-68</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>1.117804548863512e-68</v>
+        <v>1.154866209254746e-68</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>1.060270740777292e-68</v>
+        <v>1.116927028057359e-68</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>1.033261335081046e-68</v>
+        <v>1.09335346010739e-68</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>1.029970996614965e-68</v>
+        <v>1.078915439549145e-68</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>1.032699865675466e-68</v>
+        <v>1.063816661325346e-68</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>1.023511326393465e-68</v>
+        <v>1.038161588394841e-68</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>9.884580177578252e-69</v>
+        <v>9.943789633034726e-69</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>9.307197563267058e-69</v>
+        <v>9.348764220559132e-69</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>8.580718308655262e-69</v>
+        <v>8.647390837017999e-69</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>7.782895863355742e-69</v>
+        <v>7.890521000324151e-69</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>6.991483572220503e-69</v>
+        <v>7.12900618624611e-69</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>6.272854289932609e-69</v>
+        <v>6.409119590314817e-69</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>5.650688913110485e-69</v>
+        <v>5.759959774544177e-69</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>5.138659380047317e-69</v>
+        <v>5.206598777008981e-69</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>4.750437629036629e-69</v>
+        <v>4.774108635784355e-69</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>4.498179767778027e-69</v>
+        <v>4.485589887169498e-69</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>4.3702441041365e-69</v>
+        <v>4.33319145266853e-69</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>4.336080992793149e-69</v>
+        <v>4.284470413885418e-69</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>4.364619174883078e-69</v>
+        <v>4.306305437542899e-69</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>4.424787391541331e-69</v>
+        <v>4.365575190363658e-69</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>4.485514383902993e-69</v>
+        <v>4.429158339070411e-69</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>4.515728893103146e-69</v>
+        <v>4.463933550385875e-69</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>4.484359660276839e-69</v>
+        <v>4.436779491032733e-69</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>4.36046321028288e-69</v>
+        <v>4.314710178964815e-69</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>4.129740530818678e-69</v>
+        <v>4.082369800288831e-69</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>3.81087508229495e-69</v>
+        <v>3.759338275936438e-69</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>3.426433052942141e-69</v>
+        <v>3.369308194518456e-69</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>2.99898063099027e-69</v>
+        <v>2.935972144645275e-69</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>2.551084004669491e-69</v>
+        <v>2.483022714927419e-69</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>2.105309362209753e-69</v>
+        <v>2.034152493975211e-69</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>1.684222891841616e-69</v>
+        <v>1.613054070399581e-69</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>1.310390781795026e-69</v>
+        <v>1.243420032810846e-69</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>1.006331378504253e-69</v>
+        <v>9.488913414155139e-70</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>7.846700879324493e-70</v>
+        <v>7.424330041845e-70</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>6.36081155813506e-70</v>
+        <v>6.133214666429943e-70</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>5.48287400298826e-70</v>
+        <v>5.476481455586119e-70</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>5.090116395398024e-70</v>
+        <v>5.315044576989694e-70</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>5.059766916878679e-70</v>
+        <v>5.509818198316914e-70</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>5.26905374894397e-70</v>
+        <v>5.921716487243752e-70</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>5.59520507310807e-70</v>
+        <v>6.411653611446576e-70</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>5.915449070884662e-70</v>
+        <v>6.840543738601049e-70</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>6.112793622495109e-70</v>
+        <v>7.076163623988465e-70</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>6.15815055259e-70</v>
+        <v>7.090663719517611e-70</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>6.090835325030186e-70</v>
+        <v>6.937414275975522e-70</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>5.951965967196701e-70</v>
+        <v>6.671925837389079e-70</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>5.782660506470505e-70</v>
+        <v>6.349708947784982e-70</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>5.624036970232498e-70</v>
+        <v>6.026274151189816e-70</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>5.517213385863803e-70</v>
+        <v>5.757131991630622e-70</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>5.503307780745306e-70</v>
+        <v>5.597793013133981e-70</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>5.623438182257972e-70</v>
+        <v>5.603767759726617e-70</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>5.906591533987878e-70</v>
+        <v>5.814917745616411e-70</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>6.331725408281891e-70</v>
+        <v>6.206566877690069e-70</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>6.864902178687455e-70</v>
+        <v>6.737404328960084e-70</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>7.472184205551041e-70</v>
+        <v>7.366119255409827e-70</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>8.119633849219415e-70</v>
+        <v>8.051400813022991e-70</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>8.773313470038443e-70</v>
+        <v>8.751938157782312e-70</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>9.399285428354891e-70</v>
+        <v>9.426420445671471e-70</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>9.963612084515454e-70</v>
+        <v>1.003353683267409e-69</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>1.043255852868022e-69</v>
+        <v>1.053219603890801e-69</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>1.081041229356372e-69</v>
+        <v>1.092248654261882e-69</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>1.118398030744891e-69</v>
+        <v>1.129386848052683e-69</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>1.165088491533383e-69</v>
+        <v>1.174751549891301e-69</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>1.230874846221694e-69</v>
+        <v>1.238460124405874e-69</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>1.325519329309658e-69</v>
+        <v>1.330629936224525e-69</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>1.458784175297176e-69</v>
+        <v>1.461378349975447e-69</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>1.640431618683965e-69</v>
+        <v>1.640822730286649e-69</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>1.880223893969907e-69</v>
+        <v>1.879080441786304e-69</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>2.18769735360275e-69</v>
+        <v>2.186039035344233e-69</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>2.559734760977774e-69</v>
+        <v>2.558712224226382e-69</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>2.974106164456432e-69</v>
+        <v>2.974668330474581e-69</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>3.40699462777439e-69</v>
+        <v>3.409861068427851e-69</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>3.834583214667348e-69</v>
+        <v>3.840244152425246e-69</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>4.233054988870423e-69</v>
+        <v>4.241771296805232e-69</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>4.578593014119323e-69</v>
+        <v>4.590396215906871e-69</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>4.847380354149659e-69</v>
+        <v>4.862072624069129e-69</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>5.015600072696694e-69</v>
+        <v>5.032754235630619e-69</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>5.064692890928165e-69</v>
+        <v>5.083690663476453e-69</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>5.003615999986626e-69</v>
+        <v>5.023848129117542e-69</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>4.8502982218267e-69</v>
+        <v>4.871229739253219e-69</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>4.622673315790685e-69</v>
+        <v>4.643843573882164e-69</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>4.3386750412207e-69</v>
+        <v>4.359697713002864e-69</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>4.016237157458904e-69</v>
+        <v>4.036800236613853e-69</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>3.673293423847303e-69</v>
+        <v>3.693159224713509e-69</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>3.327777599728374e-69</v>
+        <v>3.346782757300686e-69</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>2.9976231648043e-69</v>
+        <v>3.015678633749816e-69</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>2.697015480556562e-69</v>
+        <v>2.714093344665317e-69</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>2.426995541707665e-69</v>
+        <v>2.44308275563508e-69</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>2.185724543388015e-69</v>
+        <v>2.200812797932272e-69</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>1.971363680728162e-69</v>
+        <v>1.985449402830201e-69</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>1.782074148858573e-69</v>
+        <v>1.795158501602094e-69</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>1.616017142909969e-69</v>
+        <v>1.628106025521432e-69</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>1.471353858012806e-69</v>
+        <v>1.482457905861431e-69</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>1.346245489297633e-69</v>
+        <v>1.356380073895401e-69</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>1.238853231894955e-69</v>
+        <v>1.248038460896606e-69</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>1.147338280935417e-69</v>
+        <v>1.155598998138449e-69</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>1.069861831549513e-69</v>
+        <v>1.077227616894188e-69</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>1.004585078867768e-69</v>
+        <v>1.011090248437105e-69</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>9.496692180207876e-70</v>
+        <v>9.553528240405654e-70</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>9.032754441390881e-70</v>
+        <v>9.081812749778467e-70</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>8.635649523532023e-70</v>
+        <v>8.677415325222403e-70</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>8.286989377937136e-70</v>
+        <v>8.321995279470906e-70</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>7.968385955911515e-70</v>
+        <v>7.997211925256864e-70</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>7.663203041967936e-70</v>
+        <v>7.686468947951691e-70</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>7.366507078134559e-70</v>
+        <v>7.384822852088242e-70</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>7.078159427590523e-70</v>
+        <v>7.092104643118711e-70</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>6.798035939596331e-70</v>
+        <v>6.808159750884456e-70</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>6.526012463412613e-70</v>
+        <v>6.532833605226976e-70</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>6.261964848299885e-70</v>
+        <v>6.265971635987648e-70</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>6.005768943519014e-70</v>
+        <v>6.007419273008205e-70</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>5.75730059833051e-70</v>
+        <v>5.757021946130024e-70</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>5.5164356619949e-70</v>
+        <v>5.514625085194493e-70</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>5.283049983773031e-70</v>
+        <v>5.280074120043326e-70</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>5.057019412925424e-70</v>
+        <v>5.053214480517906e-70</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>4.838219798712615e-70</v>
+        <v>4.833891596459634e-70</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>4.626526990395431e-70</v>
+        <v>4.621950897710203e-70</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>4.421816837234404e-70</v>
+        <v>4.417237814111008e-70</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>4.223965188490078e-70</v>
+        <v>4.219597775503457e-70</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>4.032847893423347e-70</v>
+        <v>4.02887621172931e-70</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>3.848340801294498e-70</v>
+        <v>3.844918552629717e-70</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>3.670319761364337e-70</v>
+        <v>3.667570228046349e-70</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>3.49866062289365e-70</v>
+        <v>3.496676667820856e-70</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>3.333239235142754e-70</v>
+        <v>3.33208330179442e-70</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>3.173931447372584e-70</v>
+        <v>3.173635559808839e-70</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>3.020613108843481e-70</v>
+        <v>3.021178871705321e-70</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>2.873160068816223e-70</v>
+        <v>2.874558667325506e-70</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>2.731448176551566e-70</v>
+        <v>2.733620376511016e-70</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>2.595353281309887e-70</v>
+        <v>2.598209429103093e-70</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>2.464751232351949e-70</v>
+        <v>2.46817125494336e-70</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>2.339516982401826e-70</v>
+        <v>2.343352506514542e-70</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>2.219515031166531e-70</v>
+        <v>2.223614091475112e-70</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>2.104603119828256e-70</v>
+        <v>2.108826134341452e-70</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>1.994638876267364e-70</v>
+        <v>1.998858914143907e-70</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>1.889479928363922e-70</v>
+        <v>1.893582709912526e-70</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>1.788983903998299e-70</v>
+        <v>1.792867800677662e-70</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>1.693008431050845e-70</v>
+        <v>1.696584465469645e-70</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>1.601411137401653e-70</v>
+        <v>1.604602983318552e-70</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>1.514049650931078e-70</v>
+        <v>1.516793633254719e-70</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>1.43078159951946e-70</v>
+        <v>1.433026694308468e-70</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>1.351464611046914e-70</v>
+        <v>1.353172445509898e-70</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>1.275956313393851e-70</v>
+        <v>1.277101165889401e-70</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>1.204114334440399e-70</v>
+        <v>1.204683134477087e-70</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>1.135796302066896e-70</v>
+        <v>1.135788630303277e-70</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>1.070859844153665e-70</v>
+        <v>1.070287932398275e-70</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>1.009162588580854e-70</v>
+        <v>1.008051319792212e-70</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>9.505621632287902e-71</v>
+        <v>9.489490715153977e-71</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>8.949172196313993e-71</v>
+        <v>8.928522561060806e-71</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>8.421159858133566e-71</v>
+        <v>8.396547534073547e-71</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>7.920800651991402e-71</v>
+        <v>7.89276184531891e-71</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>7.447328481281444e-71</v>
+        <v>7.416375487768518e-71</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>6.999977249396358e-71</v>
+        <v>6.966598454392719e-71</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>6.577980859730472e-71</v>
+        <v>6.542640738163523e-71</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>6.180573215676556e-71</v>
+        <v>6.143712332051377e-71</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>5.806988220628519e-71</v>
+        <v>5.769023229027878e-71</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>5.45645977798019e-71</v>
+        <v>5.417783422064534e-71</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>5.128221791124463e-71</v>
+        <v>5.089202904131922e-71</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>4.821508163455183e-71</v>
+        <v>4.782491668201565e-71</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>4.535552798366126e-71</v>
+        <v>4.496859707244923e-71</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>4.269589599250296e-71</v>
+        <v>4.231517014232682e-71</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>4.022852469501486e-71</v>
+        <v>3.985673582136315e-71</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>3.794575312513414e-71</v>
+        <v>3.758539403927224e-71</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>3.583992031679195e-71</v>
+        <v>3.549324472576203e-71</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>3.390336530392561e-71</v>
+        <v>3.357238781054669e-71</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>3.212842712047192e-71</v>
+        <v>3.181492322333979e-71</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>3.050744480036289e-71</v>
+        <v>3.021295089385019e-71</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>2.903275737753669e-71</v>
+        <v>2.875857075179285e-71</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>2.769670388592591e-71</v>
+        <v>2.744388272687721e-71</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>2.649162335946715e-71</v>
+        <v>2.626098674881668e-71</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>2.540985483209657e-71</v>
+        <v>2.52019827473242e-71</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>2.444373733774745e-71</v>
+        <v>2.425897065210991e-71</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>2.358560991035607e-71</v>
+        <v>2.342405039288688e-71</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>2.282781158385826e-71</v>
+        <v>2.268932189936775e-71</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>2.216268139218792e-71</v>
+        <v>2.204688510126326e-71</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>2.158255836928098e-71</v>
+        <v>2.148883992828615e-71</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>2.10797815490731e-71</v>
+        <v>2.100728631014888e-71</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>2.064668996549862e-71</v>
+        <v>2.059432417656262e-71</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>2.027562265249323e-71</v>
+        <v>2.024205345723989e-71</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>1.995891864399244e-71</v>
+        <v>1.994257408189296e-71</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>1.96889169739309e-71</v>
+        <v>1.968798598023338e-71</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>1.945795667624436e-71</v>
+        <v>1.947038908197363e-71</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>1.925837678486761e-71</v>
+        <v>1.928188331682539e-71</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>1.908279730482891e-71</v>
+        <v>1.911486617501764e-71</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>1.892813087519311e-71</v>
+        <v>1.896628123153656e-71</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>1.879464045577493e-71</v>
+        <v>1.883662019567531e-71</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>1.868267787835756e-71</v>
+        <v>1.872646889597818e-71</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>1.859259497472409e-71</v>
+        <v>1.863641316098942e-71</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>1.852474357665742e-71</v>
+        <v>1.856703881925304e-71</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>1.847947551594067e-71</v>
+        <v>1.85189316993133e-71</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>1.845714262435688e-71</v>
+        <v>1.849267762971439e-71</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>1.845809673368907e-71</v>
+        <v>1.848886243900043e-71</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>1.848268967572027e-71</v>
+        <v>1.850807195571559e-71</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>1.853127328223356e-71</v>
+        <v>1.855089200840409e-71</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>1.860419938501196e-71</v>
+        <v>1.861790842561007e-71</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>1.870181981583842e-71</v>
+        <v>1.870970703587763e-71</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>1.882448640649616e-71</v>
+        <v>1.88268736677511e-71</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>1.897255098876814e-71</v>
+        <v>1.896999414977457e-71</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>1.914636539443722e-71</v>
+        <v>1.913965431049206e-71</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>1.934628145528676e-71</v>
+        <v>1.933643997844804e-71</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>1.957265100309966e-71</v>
+        <v>1.956093698218653e-71</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>1.982582586965872e-71</v>
+        <v>1.981373115025147e-71</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>2.010615788674742e-71</v>
+        <v>2.00954083111875e-71</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>2.041399888614861e-71</v>
+        <v>2.040655429353855e-71</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>2.074970069964498e-71</v>
+        <v>2.074775492584849e-71</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>2.111226822840587e-71</v>
+        <v>2.111820734065454e-71</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>2.148622135738432e-71</v>
+        <v>2.150217450538198e-71</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>2.184726324462994e-71</v>
+        <v>2.187482927299868e-71</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>2.217097211897185e-71</v>
+        <v>2.221121569346818e-71</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>2.243292620923794e-71</v>
+        <v>2.248637781675278e-71</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>2.260870374425716e-71</v>
+        <v>2.267535969281585e-71</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>2.267388295285768e-71</v>
+        <v>2.275320537161999e-71</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>2.260404206386806e-71</v>
+        <v>2.269495890312814e-71</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>2.237475930611666e-71</v>
+        <v>2.247566433730311e-71</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>2.196161290843191e-71</v>
+        <v>2.207036572410772e-71</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>2.134018109964291e-71</v>
+        <v>2.14541071135055e-71</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>2.048604210857701e-71</v>
+        <v>2.060193255545821e-71</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>1.93747741640631e-71</v>
+        <v>1.948888609992917e-71</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>1.799134893193531e-71</v>
+        <v>1.809953160406474e-71</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>1.638530658129071e-71</v>
+        <v>1.648387007020342e-71</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>1.463333083060195e-71</v>
+        <v>1.471941121300865e-71</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>1.281219933021574e-71</v>
+        <v>1.288375994268616e-71</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>1.099868973048352e-71</v>
+        <v>1.105452116944649e-71</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>9.269579681756702e-72</v>
+        <v>9.309299803500095e-72</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>7.701646834382026e-72</v>
+        <v>7.725700755052766e-72</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>6.371668838711015e-72</v>
+        <v>6.381328934315101e-72</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>5.356423345094341e-72</v>
+        <v>5.35378925149683e-72</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>4.715388503495752e-72</v>
+        <v>4.703228715489107e-72</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>4.429040393737413e-72</v>
+        <v>4.410068891462285e-72</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>4.455315949036749e-72</v>
+        <v>4.431985820818397e-72</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>4.75215040179571e-72</v>
+        <v>4.726653828570673e-72</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>5.277478984415715e-72</v>
+        <v>5.251747239731819e-72</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>5.98923692929962e-72</v>
+        <v>5.964940379315971e-72</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>6.845359468848913e-72</v>
+        <v>6.823907572335909e-72</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>7.803781835464576e-72</v>
+        <v>7.786323143803889e-72</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>8.82243926155024e-72</v>
+        <v>8.809861418734834e-72</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>9.859266979506954e-72</v>
+        <v>9.852196722141073e-72</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>1.08722002217357e-71</v>
+        <v>1.087100337903487e-71</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>1.181917422064022e-71</v>
+        <v>1.182395571443125e-71</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>1.265812420862143e-71</v>
+        <v>1.266872805334243e-71</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>1.334698541808069e-71</v>
+        <v>1.336299472078103e-71</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>1.384369308142114e-71</v>
+        <v>1.386443004176148e-71</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>1.410618243104395e-71</v>
+        <v>1.413070834129625e-71</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>1.409238869935114e-71</v>
+        <v>1.411950394439863e-71</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>1.37690873010303e-71</v>
+        <v>1.379737655872386e-71</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>1.316231887814146e-71</v>
+        <v>1.319045414578841e-71</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>1.232248495273419e-71</v>
+        <v>1.234935010566748e-71</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>1.130006193713286e-71</v>
+        <v>1.132475311162934e-71</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>1.014552624366516e-71</v>
+        <v>1.016735183694557e-71</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>8.909354284654875e-72</v>
+        <v>8.927834954883853e-72</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>7.642022472428921e-72</v>
+        <v>7.656891138715009e-72</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>6.394007219314323e-72</v>
+        <v>6.405209061709957e-72</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>5.215784937634718e-72</v>
+        <v>5.223477397136229e-72</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>4.157832039717167e-72</v>
+        <v>4.162384818264788e-72</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>3.270589164127638e-72</v>
+        <v>3.272584080684121e-72</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>2.584682103101041e-72</v>
+        <v>2.584833376565941e-72</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>2.078051455570387e-72</v>
+        <v>2.076993747038827e-72</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>1.719978311971606e-72</v>
+        <v>1.718231886675497e-72</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>1.479743762739744e-72</v>
+        <v>1.477714490047786e-72</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>1.32662889831096e-72</v>
+        <v>1.324608251728641e-72</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>1.229914809120667e-72</v>
+        <v>1.228079866290265e-72</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>1.158983978138276e-72</v>
+        <v>1.157397801731511e-72</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>1.09329190422323e-72</v>
+        <v>1.091941382378069e-72</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>1.030775411142964e-72</v>
+        <v>1.02964068467539e-72</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>9.713511133027513e-73</v>
+        <v>9.704130130168261e-73</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>9.149356251078551e-73</v>
+        <v>9.141756717957211e-73</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>8.614455609633858e-73</v>
+        <v>8.608459654052679e-73</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>8.107975352746086e-73</v>
+        <v>8.103411982388123e-73</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>7.629081624467782e-73</v>
+        <v>7.625786746896902e-73</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>7.176940568850211e-73</v>
+        <v>7.174756991511096e-73</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>6.75071832994594e-73</v>
+        <v>6.749495760164085e-73</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>6.349581051807451e-73</v>
+        <v>6.349176096789161e-73</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>5.97269487848615e-73</v>
+        <v>5.972971045318545e-73</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>5.619225954034531e-73</v>
+        <v>5.620053649685541e-73</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>5.288340422505014e-73</v>
+        <v>5.289596953823385e-73</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>4.97920442794913e-73</v>
+        <v>4.980774001664418e-73</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>4.690984114419566e-73</v>
+        <v>4.692757837142138e-73</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>4.422845625967928e-73</v>
+        <v>4.424721504188965e-73</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>4.173955106646613e-73</v>
+        <v>4.175838046738111e-73</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>3.94347870050795e-73</v>
+        <v>3.945280508722714e-73</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>3.730582551603649e-73</v>
+        <v>3.732221934075297e-73</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>3.534432803986054e-73</v>
+        <v>3.535835366729019e-73</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>3.354195601707447e-73</v>
+        <v>3.355293850616972e-73</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>3.189037088819633e-73</v>
+        <v>3.189770429671774e-73</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>3.038123409374908e-73</v>
+        <v>3.038438147826534e-73</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>2.900620707425517e-73</v>
+        <v>2.900470049014309e-73</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>2.775695127023339e-73</v>
+        <v>2.775039177167792e-73</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>2.662512812220729e-73</v>
+        <v>2.661318576220148e-73</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>2.560239907069613e-73</v>
+        <v>2.558481290104117e-73</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>2.468042555622222e-73</v>
+        <v>2.465700362752742e-73</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>2.385086901930757e-73</v>
+        <v>2.382148838099036e-73</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>2.310539090047195e-73</v>
+        <v>2.30699976007579e-73</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>2.243565264023741e-73</v>
+        <v>2.239426172616021e-73</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>2.183331567912576e-73</v>
+        <v>2.178601119652721e-73</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>2.129004145765717e-73</v>
+        <v>2.123697645118721e-73</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>2.079749141635351e-73</v>
+        <v>2.073888792947021e-73</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>2.034732699573643e-73</v>
+        <v>2.028347607070596e-73</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>1.993120963632639e-73</v>
+        <v>1.986247131422307e-73</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>1.954080077864544e-73</v>
+        <v>1.946760409935172e-73</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>1.916776186321415e-73</v>
+        <v>1.909060486542057e-73</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>1.880375433055416e-73</v>
+        <v>1.872320405175941e-73</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>1.844044155197757e-73</v>
+        <v>1.83571340063494e-73</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>1.807150669161491e-73</v>
+        <v>1.798612371040016e-73</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>1.769647668509727e-73</v>
+        <v>1.760967891007023e-73</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>1.731592919028247e-73</v>
+        <v>1.722834402582805e-73</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>1.693044186502733e-73</v>
+        <v>1.684266347814105e-73</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>1.65405923671897e-73</v>
+        <v>1.645318168747765e-73</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>1.614695835462742e-73</v>
+        <v>1.606044307430635e-73</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>1.57501174851973e-73</v>
+        <v>1.566499205909452e-73</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>1.535064741675718e-73</v>
+        <v>1.526737306231063e-73</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>1.494912580716492e-73</v>
+        <v>1.486813050442314e-73</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>1.454613031427731e-73</v>
+        <v>1.446780880589944e-73</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>1.41422385959522e-73</v>
+        <v>1.406695238720799e-73</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>1.373802831004746e-73</v>
+        <v>1.366610566881728e-73</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>1.333407711441985e-73</v>
+        <v>1.326581307119466e-73</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>1.293096266692761e-73</v>
+        <v>1.286661901480897e-73</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>1.252926262542752e-73</v>
+        <v>1.246906792012761e-73</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>1.212955464777742e-73</v>
+        <v>1.207370420761902e-73</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>1.173241639183519e-73</v>
+        <v>1.168107229775169e-73</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>1.13384255154576e-73</v>
+        <v>1.129171661099298e-73</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>1.094815967650251e-73</v>
+        <v>1.090618156781139e-73</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>1.056219653282777e-73</v>
+        <v>1.052501158867534e-73</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>1.018111374229018e-73</v>
+        <v>1.014875109405226e-73</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>9.805488962747597e-74</v>
+        <v>9.777944504410602e-74</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>9.435899852057848e-74</v>
+        <v>9.413136240218798e-74</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>9.072924068077768e-74</v>
+        <v>9.054870721944291e-74</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>8.717139268665503e-74</v>
+        <v>8.703692370055835e-74</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>8.369123111677922e-74</v>
+        <v>8.360145605020904e-74</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>8.029453254972839e-74</v>
+        <v>8.024774847307919e-74</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>7.698707356408058e-74</v>
+        <v>7.698124517385285e-74</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>7.377463073840473e-74</v>
+        <v>7.380739035720507e-74</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>7.066298065127893e-74</v>
+        <v>7.073162822782e-74</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>6.765789988128083e-74</v>
+        <v>6.775940299038129e-74</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>6.476516500697998e-74</v>
+        <v>6.489615884956464e-74</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>6.199055260695417e-74</v>
+        <v>6.214734001005384e-74</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>5.933983925978072e-74</v>
+        <v>5.951839067653227e-74</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>5.681880154402984e-74</v>
+        <v>5.701475505367623e-74</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>5.443321603828109e-74</v>
+        <v>5.464187734617129e-74</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>5.218885932110515e-74</v>
+        <v>5.240520175869426e-74</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>5.009150787099544e-74</v>
+        <v>5.031017240176005e-74</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>4.814406568390188e-74</v>
+        <v>4.835953068249212e-74</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>4.633905227525782e-74</v>
+        <v>4.65462473060916e-74</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>4.466664127419634e-74</v>
+        <v>4.486108574594372e-74</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>4.311700630985674e-74</v>
+        <v>4.329480947544002e-74</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>4.168032101137254e-74</v>
+        <v>4.183818196796618e-74</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>4.034675900788141e-74</v>
+        <v>4.048196669691213e-74</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>3.91064939285208e-74</v>
+        <v>3.921692713566748e-74</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>3.794969940242471e-74</v>
+        <v>3.803382675761846e-74</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>3.68665490587306e-74</v>
+        <v>3.69234290361547e-74</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>3.584721652657564e-74</v>
+        <v>3.587649744466564e-74</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>3.48818754350943e-74</v>
+        <v>3.488379545653787e-74</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>3.396069941342378e-74</v>
+        <v>3.393608654516085e-74</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>3.307386209070119e-74</v>
+        <v>3.302413418392389e-74</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>3.221153709606121e-74</v>
+        <v>3.213870184621383e-74</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>3.136389805864168e-74</v>
+        <v>3.127055300542077e-74</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>3.052111860757737e-74</v>
+        <v>3.041045113493165e-74</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>2.967337237200534e-74</v>
+        <v>2.954915970813574e-74</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>2.881125514318006e-74</v>
+        <v>2.867783255067137e-74</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>2.793277445208689e-74</v>
+        <v>2.779447675414767e-74</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>2.704226100821105e-74</v>
+        <v>2.69029461378809e-74</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>2.614424824748466e-74</v>
+        <v>2.600728197221913e-74</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>2.52432696058374e-74</v>
+        <v>2.511152552750799e-74</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>2.434385851920133e-74</v>
+        <v>2.421971807409547e-74</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>2.345054842350857e-74</v>
+        <v>2.333590088232963e-74</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>2.25678727546888e-74</v>
+        <v>2.246411522255611e-74</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>2.170036494867488e-74</v>
+        <v>2.16084023651237e-74</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>2.085255844139653e-74</v>
+        <v>2.077280358037808e-74</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>2.002898666878584e-74</v>
+        <v>1.996136013866729e-74</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>1.923418306677479e-74</v>
+        <v>1.917811331033923e-74</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>1.847268107129324e-74</v>
+        <v>1.842710436573972e-74</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>1.774901411827321e-74</v>
+        <v>1.771237457521674e-74</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>1.706769976663294e-74</v>
+        <v>1.703795075416725e-74</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>1.643053010809824e-74</v>
+        <v>1.640537836380284e-74</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>1.583350429782525e-74</v>
+        <v>1.581092878702599e-74</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>1.527188043644115e-74</v>
+        <v>1.525019872653679e-74</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>1.474091662457162e-74</v>
+        <v>1.471878488503384e-74</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>1.42358709628443e-74</v>
+        <v>1.421228396521771e-74</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>1.375200155188499e-74</v>
+        <v>1.37262926697871e-74</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>1.328456649232083e-74</v>
+        <v>1.325640770144207e-74</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>1.282882388477852e-74</v>
+        <v>1.279822576288224e-74</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>1.23801782077731e-74</v>
+        <v>1.234749070522967e-74</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>1.193864240596372e-74</v>
+        <v>1.190457910474438e-74</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>1.150965591796825e-74</v>
+        <v>1.147532259674242e-74</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>1.109896953637364e-74</v>
+        <v>1.106586580947808e-74</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>1.071233405376801e-74</v>
+        <v>1.068235337120683e-74</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>1.035550026273939e-74</v>
+        <v>1.033092991018408e-74</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>1.003421895587486e-74</v>
+        <v>1.001774005466425e-74</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>9.753460592270001e-75</v>
+        <v>9.748078442095387e-75</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>9.505008601487554e-75</v>
+        <v>9.512875525909979e-75</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>9.269662112121128e-75</v>
+        <v>9.291096933041205e-75</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>9.027885083203839e-75</v>
+        <v>9.061343201587597e-75</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>8.760141473768822e-75</v>
+        <v>8.802214869647712e-75</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>8.452587957620095e-75</v>
+        <v>8.498482799978592e-75</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>8.116852780164001e-75</v>
+        <v>8.162526452056194e-75</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>7.771685462217365e-75</v>
+        <v>7.814444024663397e-75</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>7.435835856547837e-75</v>
+        <v>7.474334076383993e-75</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>7.124902641587164e-75</v>
+        <v>7.158947537472646e-75</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>6.840436388637983e-75</v>
+        <v>6.870111428433927e-75</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>6.580074402112623e-75</v>
+        <v>6.605495537672519e-75</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>6.341453820712734e-75</v>
+        <v>6.362769477551518e-75</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>6.122211783139338e-75</v>
+        <v>6.139602860433371e-75</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>5.919985428094106e-75</v>
+        <v>5.9336652986812e-75</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>5.732411894278648e-75</v>
+        <v>5.74262640465805e-75</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>5.557128320394077e-75</v>
+        <v>5.564155790726471e-75</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>5.391771845142161e-75</v>
+        <v>5.395923069249675e-75</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>5.233979607224052e-75</v>
+        <v>5.235597852590247e-75</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>5.081388745341351e-75</v>
+        <v>5.080849753111231e-75</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>4.931636398195504e-75</v>
+        <v>4.929348383175511e-75</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>4.782359704488096e-75</v>
+        <v>4.778763355146113e-75</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>4.631266486475838e-75</v>
+        <v>4.626833267971257e-75</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>4.477771439660323e-75</v>
+        <v>4.472962615252308e-75</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>4.323042472569736e-75</v>
+        <v>4.318267012500547e-75</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>4.168327447329517e-75</v>
+        <v>4.163940109299547e-75</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>4.014874226065102e-75</v>
+        <v>4.011175555232878e-75</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>3.863930670901515e-75</v>
+        <v>3.861166999883696e-75</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>3.716744643964197e-75</v>
+        <v>3.715108092835575e-75</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>3.574564007378573e-75</v>
+        <v>3.574192483672071e-75</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>3.438636623269687e-75</v>
+        <v>3.439613821976363e-75</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>3.31021035376297e-75</v>
+        <v>3.312565757332013e-75</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>3.190533060983828e-75</v>
+        <v>3.19424193932256e-75</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>3.080852607057344e-75</v>
+        <v>3.08583601753122e-75</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>2.982416854109013e-75</v>
+        <v>2.988541641541623e-75</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>2.896164195653194e-75</v>
+        <v>2.903247071331137e-75</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>2.821279893054125e-75</v>
+        <v>2.829110542190422e-75</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>2.756332581433294e-75</v>
+        <v>2.764681790716877e-75</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>2.699890214419018e-75</v>
+        <v>2.70850988099728e-75</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>2.650520745639796e-75</v>
+        <v>2.659143877118586e-75</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>2.606792128724102e-75</v>
+        <v>2.615132843167722e-75</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>2.567272317300293e-75</v>
+        <v>2.575025843231503e-75</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>2.530529264996848e-75</v>
+        <v>2.537371941396862e-75</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>2.495130964697821e-75</v>
+        <v>2.500720241988927e-75</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>2.466731831947251e-75</v>
+        <v>2.470883654068407e-75</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>2.477841444941284e-75</v>
+        <v>2.481202467859527e-75</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>2.566958934946897e-75</v>
+        <v>2.5711552370018e-75</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>2.748605147275874e-75</v>
+        <v>2.755563450474502e-75</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>2.999111523985794e-75</v>
+        <v>3.009978126167562e-75</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>3.291401845141947e-75</v>
+        <v>3.306446155685932e-75</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>3.598399890808952e-75</v>
+        <v>3.61701443063388e-75</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>3.893029441051377e-75</v>
+        <v>3.91372984261563e-75</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>4.148320651789229e-75</v>
+        <v>4.168757642158776e-75</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>4.344086167375433e-75</v>
+        <v>4.361809604573221e-75</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>4.470888138595492e-75</v>
+        <v>4.484557926110571e-75</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>4.52024162784497e-75</v>
+        <v>4.529735058583707e-75</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>4.483661697519122e-75</v>
+        <v>4.490073453805217e-75</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>4.355100869494962e-75</v>
+        <v>4.360614597948409e-75</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>4.15217616817676e-75</v>
+        <v>4.158817641920756e-75</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>3.905811923427806e-75</v>
+        <v>3.914747905381926e-75</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>3.647080762664588e-75</v>
+        <v>3.658611192027743e-75</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>3.407055313302882e-75</v>
+        <v>3.420613305553321e-75</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>3.21423530249804e-75</v>
+        <v>3.228454648537674e-75</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>3.068177900192259e-75</v>
+        <v>3.081652364278152e-75</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>2.950216988093529e-75</v>
+        <v>2.961978389472501e-75</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>2.841402290265201e-75</v>
+        <v>2.850927957950898e-75</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>2.722783530770353e-75</v>
+        <v>2.729996303543237e-75</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>2.575673073885449e-75</v>
+        <v>2.580936579460538e-75</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>2.393428739127892e-75</v>
+        <v>2.39733088285545e-75</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>2.186209037195505e-75</v>
+        <v>2.189260017669077e-75</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>1.965419295820773e-75</v>
+        <v>1.968029193937069e-75</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>1.742464842736228e-75</v>
+        <v>1.744943621695125e-75</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>1.528751005673792e-75</v>
+        <v>1.531308510978334e-75</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>1.335683112366165e-75</v>
+        <v>1.33842907182256e-75</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>1.174479883936679e-75</v>
+        <v>1.177425181472901e-75</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>1.049845014870648e-75</v>
+        <v>1.052946163570743e-75</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>9.5842341558356e-76</v>
+        <v>9.616375687567093e-76</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>8.963602550497228e-76</v>
+        <v>8.996486175775051e-76</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>8.598007022437035e-76</v>
+        <v>8.6312853058009e-76</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>8.448899261399778e-76</v>
+        <v>8.482265283113348e-76</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>8.477730957129919e-76</v>
+        <v>8.510918313180793e-76</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>8.645953799372392e-76</v>
+        <v>8.678736601472116e-76</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>8.915019477871622e-76</v>
+        <v>8.947212353455684e-76</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>9.246379682372828e-76</v>
+        <v>9.277837774600658e-76</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>9.601486102620194e-76</v>
+        <v>9.632105070375166e-76</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>9.941790428359091e-76</v>
+        <v>9.971506446248521e-76</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>1.022874434933391e-75</v>
+        <v>1.025753410768906e-75</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>1.042458362712678e-75</v>
+        <v>1.045246308249825e-75</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>1.051281275841996e-75</v>
+        <v>1.05398032395121e-75</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>1.050017445207268e-75</v>
+        <v>1.052626562709994e-75</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>1.039459035287148e-75</v>
+        <v>1.04197383507945e-75</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>1.020398210560267e-75</v>
+        <v>1.02281095161283e-75</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>9.936271355052842e-76</v>
+        <v>9.959267228634113e-76</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>9.599379746008837e-76</v>
+        <v>9.621099593844992e-76</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>9.201228923256572e-76</v>
+        <v>9.221494717293041e-76</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>8.749743137682839e-76</v>
+        <v>8.768343340261153e-76</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>8.254918645081091e-76</v>
+        <v>8.271631782376018e-76</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>7.732546619086823e-76</v>
+        <v>7.747207210550393e-76</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>7.199423549559217e-76</v>
+        <v>7.211933545518542e-76</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>6.672345926357492e-76</v>
+        <v>6.682674708014766e-76</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>6.168110239339443e-76</v>
+        <v>6.176294618771923e-76</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>5.703512978364693e-76</v>
+        <v>5.709657198524724e-76</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>5.295350633291148e-76</v>
+        <v>5.299626368006143e-76</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>4.960419693977998e-76</v>
+        <v>4.96306604795045e-76</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>4.715516650284171e-76</v>
+        <v>4.71684015909165e-76</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>4.577437992067967e-76</v>
+        <v>4.577812622163116e-76</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>4.562980209188399e-76</v>
+        <v>4.562847357898942e-76</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>4.688939791504042e-76</v>
+        <v>4.688808287032775e-76</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>4.972113228873862e-76</v>
+        <v>4.972559330298657e-76</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>5.424713528381212e-76</v>
+        <v>5.426364977255658e-76</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>6.001600193160035e-76</v>
+        <v>6.004936649856098e-76</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>6.618601180838863e-76</v>
+        <v>6.62381841282771e-76</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>7.190796360872186e-76</v>
+        <v>7.197803639723477e-76</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>7.633265602716545e-76</v>
+        <v>7.641685704098427e-76</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>7.861088775826834e-76</v>
+        <v>7.870257979505941e-76</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>7.810882629356055e-76</v>
+        <v>7.819924123893114e-76</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>7.616144747095438e-76</v>
+        <v>7.62463966380846e-76</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>7.515886585096199e-76</v>
+        <v>7.524233623678698e-76</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>7.876703292104465e-76</v>
+        <v>7.886099346337126e-76</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>9.011997933870794e-76</v>
+        <v>9.02368266920214e-76</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>1.03781190187472e-75</v>
+        <v>1.039229568889742e-75</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>1.134567138842519e-75</v>
+        <v>1.136141899337608e-75</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>1.135068379690472e-75</v>
+        <v>1.136609123058809e-75</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>1.051884978786853e-75</v>
+        <v>1.053242995318982e-75</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>9.38930791270861e-76</v>
+        <v>9.40084546498042e-76</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>8.502354174364652e-76</v>
+        <v>8.512903724722711e-76</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>8.064506138978106e-76</v>
+        <v>8.075394879718449e-76</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>7.73496392671568e-76</v>
+        <v>7.746169507399384e-76</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>7.338818492329583e-76</v>
+        <v>7.349694590308627e-76</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>6.886240252693479e-76</v>
+        <v>6.896263500568547e-76</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>6.393196072239989e-76</v>
+        <v>6.401989450655049e-76</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>5.87565281540293e-76</v>
+        <v>5.882985653045254e-76</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>5.349577346616219e-76</v>
+        <v>5.355365320216377e-76</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>4.830936530312337e-76</v>
+        <v>4.835241664644191e-76</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>4.335093142538953e-76</v>
+        <v>4.338117530139873e-76</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>3.868745684208698e-76</v>
+        <v>3.870741409037619e-76</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>3.432109459900785e-76</v>
+        <v>3.433311196130318e-76</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>3.025243433711142e-76</v>
+        <v>3.025866820366103e-76</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>2.648206569735594e-76</v>
+        <v>2.648448210693005e-76</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>2.301057832068955e-76</v>
+        <v>2.301095296058044e-76</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>1.983856184807349e-76</v>
+        <v>1.983848005409548e-76</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>1.696660592045697e-76</v>
+        <v>1.696746267694647e-76</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>1.439530854815271e-76</v>
+        <v>1.439830794652141e-76</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>1.212764084648763e-76</v>
+        <v>1.213364255964495e-76</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>1.017219820734575e-76</v>
+        <v>1.018135363293641e-76</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>8.538390869277914e-77</v>
+        <v>8.550090414018999e-77</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>7.235629070833832e-77</v>
+        <v>7.248502150514737e-77</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>6.271106897928828e-77</v>
+        <v>6.28307163515463e-77</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>5.614769102701651e-77</v>
+        <v>5.623867651953207e-77</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>5.205639062602192e-77</v>
+        <v>5.210731029327131e-77</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>4.981803363100755e-77</v>
+        <v>4.982586811493643e-77</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>4.881348589668864e-77</v>
+        <v>4.87836004267122e-77</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>4.842361327777381e-77</v>
+        <v>4.836975767077662e-77</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>4.802928162897438e-77</v>
+        <v>4.797359028931052e-77</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>4.706410589142823e-77</v>
+        <v>4.703572573759825e-77</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>4.549909741985326e-77</v>
+        <v>4.552020949486982e-77</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>4.361907208817188e-77</v>
+        <v>4.369672909005381e-77</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>4.171277819277644e-77</v>
+        <v>4.183880218705281e-77</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>4.006896403005402e-77</v>
+        <v>4.021994644976417e-77</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>3.897500375712571e-77</v>
+        <v>3.911239357355503e-77</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>3.850722483666028e-77</v>
+        <v>3.859087023064873e-77</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>3.830546193895097e-77</v>
+        <v>3.832161757169239e-77</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>3.797384354004484e-77</v>
+        <v>3.793728784895627e-77</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>3.737138825957485e-77</v>
+        <v>3.730665733420101e-77</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>3.654359725308859e-77</v>
+        <v>3.647125517744914e-77</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>3.554023866877811e-77</v>
+        <v>3.547656336675825e-77</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>3.441108065483651e-77</v>
+        <v>3.436806389018693e-77</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>3.320589135945376e-77</v>
+        <v>3.319123873579076e-77</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>3.197443893082397e-77</v>
+        <v>3.199156989162928e-77</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>3.076621676377744e-77</v>
+        <v>3.081428831526196e-77</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>2.961213976997895e-77</v>
+        <v>2.968765059184381e-77</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>2.851305336989124e-77</v>
+        <v>2.861244008726157e-77</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>2.746706165364353e-77</v>
+        <v>2.758693553009897e-77</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>2.647226871136804e-77</v>
+        <v>2.660941564894272e-77</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>2.552677863319675e-77</v>
+        <v>2.567815917237927e-77</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>2.462869550925917e-77</v>
+        <v>2.479144482899267e-77</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>2.377612342968737e-77</v>
+        <v>2.394755134736945e-77</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>2.296716648461323e-77</v>
+        <v>2.314475745609599e-77</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>2.21999287641665e-77</v>
+        <v>2.238134188375655e-77</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>2.147251435847975e-77</v>
+        <v>2.165558335893816e-77</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>2.078302735768285e-77</v>
+        <v>2.096576061022524e-77</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>2.012957185190767e-77</v>
+        <v>2.03101523662041e-77</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>1.951025193128594e-77</v>
+        <v>1.9687037355461e-77</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>1.892317168594774e-77</v>
+        <v>1.909469430658049e-77</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>1.836643520602482e-77</v>
+        <v>1.853140194814884e-77</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>1.783814658164884e-77</v>
+        <v>1.79954390087522e-77</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>1.733640990295004e-77</v>
+        <v>1.748508421697528e-77</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>1.68593292600601e-77</v>
+        <v>1.699861630140426e-77</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>1.64050087431106e-77</v>
+        <v>1.653431399062525e-77</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>1.597155244223192e-77</v>
+        <v>1.609045601322308e-77</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>1.555706444755602e-77</v>
+        <v>1.566532109778425e-77</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>1.515964884921336e-77</v>
+        <v>1.525718797289367e-77</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>1.477740973733551e-77</v>
+        <v>1.486433536713742e-77</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>1.440845120205364e-77</v>
+        <v>1.448504200910118e-77</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>1.405087733349928e-77</v>
+        <v>1.411758662737096e-77</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>1.370279222180296e-77</v>
+        <v>1.376024795053179e-77</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>1.336253301317331e-77</v>
+        <v>1.341151340120428e-77</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>1.302973476302531e-77</v>
+        <v>1.307103263691872e-77</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>1.27044816947834e-77</v>
+        <v>1.273885753035157e-77</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>1.238685846591095e-77</v>
+        <v>1.241504034284681e-77</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>1.207694973387048e-77</v>
+        <v>1.209963333574758e-77</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>1.177484015612535e-77</v>
+        <v>1.179268877039788e-77</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>1.148061439013894e-77</v>
+        <v>1.149425890814169e-77</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>1.119435709337378e-77</v>
+        <v>1.120439601032217e-77</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>1.091615292329325e-77</v>
+        <v>1.092315233828332e-77</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>1.064608653736066e-77</v>
+        <v>1.065058015336908e-77</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>1.038424259303861e-77</v>
+        <v>1.038673171692267e-77</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>1.013070574779068e-77</v>
+        <v>1.013165929028828e-77</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>9.885560659079486e-78</v>
+        <v>9.885415134809153e-78</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>9.648891984368347e-78</v>
+        <v>9.648051511829231e-78</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>9.420784381120556e-78</v>
+        <v>9.419620682692431e-78</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>9.201322506798794e-78</v>
+        <v>9.200174908742053e-78</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>8.990591018866353e-78</v>
+        <v>8.989766451322008e-78</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>8.788674574786506e-78</v>
+        <v>8.788447571776188e-78</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>8.595657832021968e-78</v>
+        <v>8.59627053144794e-78</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>8.411625448036018e-78</v>
+        <v>8.413287591681161e-78</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>8.236662080291897e-78</v>
+        <v>8.239551013819709e-78</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>8.07085238625238e-78</v>
+        <v>8.075113059206983e-78</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>7.91428102338085e-78</v>
+        <v>7.920025989186988e-78</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>7.767032649140113e-78</v>
+        <v>7.774342065103154e-78</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>7.629191920993404e-78</v>
+        <v>7.638113548299333e-78</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>7.500843496403925e-78</v>
+        <v>7.511392700119349e-78</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>7.382072032834527e-78</v>
+        <v>7.394231781906679e-78</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>7.272962187748423e-78</v>
+        <v>7.286683055005154e-78</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>7.173598618608783e-78</v>
+        <v>7.188798780758564e-78</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>7.084065982878517e-78</v>
+        <v>7.100631220510446e-78</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>7.004448938020808e-78</v>
+        <v>7.0222326356046e-78</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>6.934832141498801e-78</v>
+        <v>6.953655287384793e-78</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>6.875300250775461e-78</v>
+        <v>6.894951437194615e-78</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>6.825937923313978e-78</v>
+        <v>6.846173346377874e-78</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>6.786829816577358e-78</v>
+        <v>6.807373276278198e-78</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>6.757999699957769e-78</v>
+        <v>6.778552342593749e-78</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>6.739183643326111e-78</v>
+        <v>6.759469995003055e-78</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>6.730032824702436e-78</v>
+        <v>6.749814374495634e-78</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>6.730198409802367e-78</v>
+        <v>6.749273611725341e-78</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>6.73933156434153e-78</v>
+        <v>6.757535837346042e-78</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>6.757083454035582e-78</v>
+        <v>6.774289182011625e-78</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>6.78310524460015e-78</v>
+        <v>6.799221776375955e-78</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>6.81704810175083e-78</v>
+        <v>6.832021751092867e-78</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>6.85856319120332e-78</v>
+        <v>6.872377236816292e-78</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>6.90730167867323e-78</v>
+        <v>6.919976364200074e-78</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>6.962914729876135e-78</v>
+        <v>6.974507263898027e-78</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>7.024983826904927e-78</v>
+        <v>7.035586954805975e-78</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>7.091845733429254e-78</v>
+        <v>7.101562227438075e-78</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>7.160763881868297e-78</v>
+        <v>7.169684543604572e-78</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>7.228966534441576e-78</v>
+        <v>7.237169474118209e-78</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>7.293681953368369e-78</v>
+        <v>7.301232589791495e-78</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>7.35213840086818e-78</v>
+        <v>7.359089461437168e-78</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>7.401564139160348e-78</v>
+        <v>7.407955659867791e-78</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>7.439187430464236e-78</v>
+        <v>7.44504675589596e-78</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>7.462236536999305e-78</v>
+        <v>7.467578320334368e-78</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>7.467939720984907e-78</v>
+        <v>7.472765923995595e-78</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>7.453525244640462e-78</v>
+        <v>7.457825137692288e-78</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>7.416221370185334e-78</v>
+        <v>7.419971532237047e-78</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>7.353256359838918e-78</v>
+        <v>7.356420678442492e-78</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>7.261858475820711e-78</v>
+        <v>7.26438814712135e-78</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>7.139255980349932e-78</v>
+        <v>7.141089509086072e-78</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>6.984394185950289e-78</v>
+        <v>6.985465504853274e-78</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>6.80414023609141e-78</v>
+        <v>6.804416165773228e-78</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>6.607644335598775e-78</v>
+        <v>6.607135380442892e-78</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>6.404056902403393e-78</v>
+        <v>6.402817251572466e-78</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>6.20252835443572e-78</v>
+        <v>6.200655881871586e-78</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>6.012209109626769e-78</v>
+        <v>6.009845374050456e-78</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>5.842249585907506e-78</v>
+        <v>5.83957983081923e-78</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>5.70180020120845e-78</v>
+        <v>5.699053354887613e-78</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>5.599999615608161e-78</v>
+        <v>5.597448214026612e-78</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>5.542344201801106e-78</v>
+        <v>5.540280509087865e-78</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>5.525549986347673e-78</v>
+        <v>5.524228429154159e-78</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>5.545036520037777e-78</v>
+        <v>5.544665187593774e-78</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>5.596223353661197e-78</v>
+        <v>5.596963997774856e-78</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>5.674530038007872e-78</v>
+        <v>5.67649807306571e-78</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>5.77537612386761e-78</v>
+        <v>5.778640626834514e-78</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>5.89418116203014e-78</v>
+        <v>5.898764872449361e-78</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>6.026364703285521e-78</v>
+        <v>6.032244023278678e-78</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>6.167316109886605e-78</v>
+        <v>6.174421483095959e-78</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>6.312056367306031e-78</v>
+        <v>6.320276902952137e-78</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>6.455360248932396e-78</v>
+        <v>6.464546812396711e-78</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>6.591998022823649e-78</v>
+        <v>6.601963292201796e-78</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>6.716739957038108e-78</v>
+        <v>6.727258423139873e-78</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>6.824356319633715e-78</v>
+        <v>6.835164285983051e-78</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>6.909617378668478e-78</v>
+        <v>6.920412961503498e-78</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>6.967293402200621e-78</v>
+        <v>6.977736530473606e-78</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>6.992154658288127e-78</v>
+        <v>7.001867073665522e-78</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>6.979215848239051e-78</v>
+        <v>6.987789860181314e-78</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>6.926971471918251e-78</v>
+        <v>6.934094596673255e-78</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>6.836506739060245e-78</v>
+        <v>6.842054493388271e-78</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>6.708968608413983e-78</v>
+        <v>6.713006721306282e-78</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>6.545504038728646e-78</v>
+        <v>6.548288451407432e-78</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>6.347259988753542e-78</v>
+        <v>6.349236854671991e-78</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>6.115384072516458e-78</v>
+        <v>6.117189688882728e-78</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>5.852087096965385e-78</v>
+        <v>5.854436802170264e-78</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>5.562805101619793e-78</v>
+        <v>5.566156241732768e-78</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>5.253583404318726e-78</v>
+        <v>5.258071664126861e-78</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>4.930467322752561e-78</v>
+        <v>4.935906725785561e-78</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>4.599096847335459e-78</v>
+        <v>4.605047735714629e-78</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>4.263525408647493e-78</v>
+        <v>4.269560534474439e-78</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>3.927418299226638e-78</v>
+        <v>3.933187921523704e-78</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>3.594440811609666e-78</v>
+        <v>3.599672696319926e-78</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>3.268258238334253e-78</v>
+        <v>3.272757658321519e-78</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>2.952535871937782e-78</v>
+        <v>2.956185606986596e-78</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>2.650939004957888e-78</v>
+        <v>2.653699341773531e-78</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>2.367132929931405e-78</v>
+        <v>2.369041662139889e-78</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>2.104782939396217e-78</v>
+        <v>2.105955367544288e-78</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>1.866949573108862e-78</v>
+        <v>1.867566665209773e-78</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>1.65321113991089e-78</v>
+        <v>1.653451358606061e-78</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>1.46190211469386e-78</v>
+        <v>1.46191706628568e-78</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>1.29135541999597e-78</v>
+        <v>1.291269824056848e-78</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>1.139903978355944e-78</v>
+        <v>1.139815667728312e-78</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>1.005880712312438e-78</v>
+        <v>1.005860633108748e-78</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>8.876185444037528e-79</v>
+        <v>8.877107560064789e-79</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>7.834503971685583e-79</v>
+        <v>7.836720722301962e-79</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>6.917120733719636e-79</v>
+        <v>6.920536029801794e-79</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>6.110186396570788e-79</v>
+        <v>6.114538300423213e-79</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>5.404937872190047e-79</v>
+        <v>5.409984310637302e-79</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>4.793151952079709e-79</v>
+        <v>4.798690428983467e-79</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>4.266605427744005e-79</v>
+        <v>4.272473024003055e-79</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>3.817075090686868e-79</v>
+        <v>3.823148464237106e-79</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>3.436337732411048e-79</v>
+        <v>3.442533118225485e-79</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>3.116170144420541e-79</v>
+        <v>3.1224433545093e-79</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>2.848349118219122e-79</v>
+        <v>2.854695541629439e-79</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>2.624689275849191e-79</v>
+        <v>2.631141939592534e-79</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>2.437902226364169e-79</v>
+        <v>2.444485818720861e-79</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>2.281611760931658e-79</v>
+        <v>2.288295875902882e-79</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>2.149482540547808e-79</v>
+        <v>2.156179582998435e-79</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>2.035179226209295e-79</v>
+        <v>2.041744411867881e-79</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>1.932366478912344e-79</v>
+        <v>1.938597834371129e-79</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>1.83470895965349e-79</v>
+        <v>1.840347322368404e-79</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>1.735871329429251e-79</v>
+        <v>1.740600347719906e-79</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>1.62951824923588e-79</v>
+        <v>1.632964382285576e-79</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>1.512523988623952e-79</v>
+        <v>1.514355204101642e-79</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>1.395625791179536e-79</v>
+        <v>1.395977861016305e-79</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>1.293302893952358e-79</v>
+        <v>1.292894463157467e-79</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>1.219778006826028e-79</v>
+        <v>1.219895353799806e-79</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>1.172712001285259e-79</v>
+        <v>1.174225244653505e-79</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>1.127196935285497e-79</v>
+        <v>1.129259990546343e-79</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>1.080264226356714e-79</v>
+        <v>1.081877619702585e-79</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>1.038515248561254e-79</v>
+        <v>1.039196856834047e-79</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>1.008574516164952e-79</v>
+        <v>1.008361188708647e-79</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>9.967388329440248e-80</v>
+        <v>9.961697980890663e-80</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>1.001733675529858e-79</v>
+        <v>1.001467168869542e-79</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>1.014694264092175e-79</v>
+        <v>1.015123198279149e-79</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>1.026424322440338e-79</v>
+        <v>1.027659501974622e-79</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>1.027727574383738e-79</v>
+        <v>1.029597695612733e-79</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>1.009412618204228e-79</v>
+        <v>1.011464400682042e-79</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>9.673542474658797e-80</v>
+        <v>9.689889599121471e-80</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>9.120738878434329e-80</v>
+        <v>9.129420517386036e-80</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>8.567243556944203e-80</v>
+        <v>8.567966571013482e-80</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>8.138936432968133e-80</v>
+        <v>8.134487337579236e-80</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>7.8557249684219e-80</v>
+        <v>7.849681134513176e-80</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>7.643349706331047e-80</v>
+        <v>7.638045537845254e-80</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>7.424274387360397e-80</v>
+        <v>7.420730548679587e-80</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>7.136442767786892e-80</v>
+        <v>7.134596703407279e-80</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>6.783328343509605e-80</v>
+        <v>6.783010110020745e-80</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>6.385741456883468e-80</v>
+        <v>6.386931893522405e-80</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>5.964492560621627e-80</v>
+        <v>5.967323290916264e-80</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>5.540392107437311e-80</v>
+        <v>5.545145539206414e-80</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>5.134249286462581e-80</v>
+        <v>5.141358572389372e-80</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>4.762342668419158e-80</v>
+        <v>4.772250341035193e-80</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>4.426240490057049e-80</v>
+        <v>4.438939467757256e-80</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>4.124530637617864e-80</v>
+        <v>4.139471231329556e-80</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>3.855800997344133e-80</v>
+        <v>3.87189091052701e-80</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>3.618639455478273e-80</v>
+        <v>3.634243784124413e-80</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>3.41163389826207e-80</v>
+        <v>3.424575130895936e-80</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>3.233372152302839e-80</v>
+        <v>3.240930206153328e-80</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>3.079662040003252e-80</v>
+        <v>3.080260316833359e-80</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>2.940108119707263e-80</v>
+        <v>2.937011845263613e-80</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>2.812088413018404e-80</v>
+        <v>2.808528670966454e-80</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>2.694539859202032e-80</v>
+        <v>2.692743243439017e-80</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>2.58639939752319e-80</v>
+        <v>2.587588012178138e-80</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>2.486603967247334e-80</v>
+        <v>2.49099542668105e-80</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>2.394150311138823e-80</v>
+        <v>2.401110185311071e-80</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>2.308318712637496e-80</v>
+        <v>2.317083301908694e-80</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>2.22847340166148e-80</v>
+        <v>2.238363725135531e-80</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>2.153978621015286e-80</v>
+        <v>2.164400449388887e-80</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>2.084198613503647e-80</v>
+        <v>2.09464246906628e-80</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>2.018497621931276e-80</v>
+        <v>2.028538778565211e-80</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>1.956239889102713e-80</v>
+        <v>1.965538372283007e-80</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>1.896789657822676e-80</v>
+        <v>1.905090244617174e-80</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>1.839511170895873e-80</v>
+        <v>1.84664338996521e-80</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>1.783768671126859e-80</v>
+        <v>1.789646802724455e-80</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>1.728926401320391e-80</v>
+        <v>1.733549477292456e-80</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>1.674349790331581e-80</v>
+        <v>1.677801454613162e-80</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>1.619632180290082e-80</v>
+        <v>1.622053881614665e-80</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>1.564864321626667e-80</v>
+        <v>1.566396808075748e-80</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>1.510202580564524e-80</v>
+        <v>1.510978181800348e-80</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>1.455803323326987e-80</v>
+        <v>1.455945950592557e-80</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>1.401822916137392e-80</v>
+        <v>1.401448062256463e-80</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>1.348417725218928e-80</v>
+        <v>1.347632464596007e-80</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>1.29574411679493e-80</v>
+        <v>1.294647105415278e-80</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>1.243958457088731e-80</v>
+        <v>1.242639932518363e-80</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>1.193217112323523e-80</v>
+        <v>1.191758893709207e-80</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>1.143676448722683e-80</v>
+        <v>1.142151936791941e-80</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>1.09549283250941e-80</v>
+        <v>1.093967009570517e-80</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>1.048822629907035e-80</v>
+        <v>1.047352059849017e-80</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>1.003822207138882e-80</v>
+        <v>1.002455035431523e-80</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>9.606479304281588e-81</v>
+        <v>9.594238841219929e-81</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>9.194561659981914e-81</v>
+        <v>9.184065537245071e-81</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>8.804032800723011e-81</v>
+        <v>8.795509920431395e-81</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>8.436456388737035e-81</v>
+        <v>8.430051468818602e-81</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>8.09339608625721e-81</v>
+        <v>8.089169660447442e-81</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>7.775976210513507e-81</v>
+        <v>7.773908980588035e-81</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>7.483294635572735e-81</v>
+        <v>7.483307545666978e-81</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>7.213865368614792e-81</v>
+        <v>7.215825389116999e-81</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>6.966202362604755e-81</v>
+        <v>6.969922490693069e-81</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>6.738819570508442e-81</v>
+        <v>6.744058830150893e-81</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>6.530230945291414e-81</v>
+        <v>6.536694387245924e-81</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>6.338950439919403e-81</v>
+        <v>6.346289141733779e-81</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>6.163492007357626e-81</v>
+        <v>6.171303073369569e-81</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>6.002369600571969e-81</v>
+        <v>6.010196161909063e-81</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>5.854097172527703e-81</v>
+        <v>5.861428387107428e-81</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>5.717188676190544e-81</v>
+        <v>5.723459728720267e-81</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>5.590158064526167e-81</v>
+        <v>5.594750166503145e-81</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>5.471519290499908e-81</v>
+        <v>5.473759680211283e-81</v>
       </c>
     </row>
   </sheetData>
